--- a/doc/backend/db/TRN-MiniBlog_DatabaseDesign_VoThanhQuang.xlsx
+++ b/doc/backend/db/TRN-MiniBlog_DatabaseDesign_VoThanhQuang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="0" windowWidth="15580" windowHeight="14080" tabRatio="818" activeTab="9"/>
+    <workbookView xWindow="9260" yWindow="0" windowWidth="16340" windowHeight="14080" tabRatio="818" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="215">
   <si>
     <t>No</t>
   </si>
@@ -387,12 +387,6 @@
   </si>
   <si>
     <t>version_id, rank_number, rank_type</t>
-  </si>
-  <si>
-    <t>create_dt</t>
-  </si>
-  <si>
-    <t>update_dt</t>
   </si>
   <si>
     <t>Current date time as default value.</t>
@@ -450,9 +444,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>last_login_dt</t>
-  </si>
-  <si>
     <t>TINYINT(1)</t>
   </si>
   <si>
@@ -523,13 +514,7 @@
     <t>modified_at</t>
   </si>
   <si>
-    <t>TIMESTAMP(0)</t>
-  </si>
-  <si>
     <t>Modified date</t>
-  </si>
-  <si>
-    <t>CURRENT_TIMESTAMP</t>
   </si>
   <si>
     <t>Just allow a-z, A-Z, 0-9</t>
@@ -699,9 +684,6 @@
     <t>post_id</t>
   </si>
   <si>
-    <t>post_id1</t>
-  </si>
-  <si>
     <t>user_id1</t>
   </si>
   <si>
@@ -709,6 +691,63 @@
   </si>
   <si>
     <t>auto increment</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>LONGBLOB</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Post_id</t>
+  </si>
+  <si>
+    <t>access_token_UNQUE</t>
+  </si>
+  <si>
+    <t>username_UNIQUE</t>
+  </si>
+  <si>
+    <t>email_UNIQUE</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>abcdef12345</t>
+  </si>
+  <si>
+    <t>abcefgh</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>aabcddda213323fd</t>
+  </si>
+  <si>
+    <t>VARCHAR(70)</t>
   </si>
 </sst>
 </file>
@@ -926,7 +965,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2063,8 +2102,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="449">
+  <cellStyleXfs count="458">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3409,8 +3487,35 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3933,6 +4038,24 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4105,26 +4228,23 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="449">
+  <cellStyles count="458">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -4566,6 +4686,15 @@
     <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ハイパーリンク 2" xfId="4"/>
@@ -5819,29 +5948,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="188"/>
-      <c r="P13" s="188"/>
-      <c r="Q13" s="188"/>
-      <c r="R13" s="188"/>
-      <c r="S13" s="188"/>
-      <c r="T13" s="188"/>
-      <c r="U13" s="188"/>
-      <c r="V13" s="188"/>
-      <c r="W13" s="188"/>
-      <c r="X13" s="188"/>
-      <c r="Y13" s="188"/>
-      <c r="Z13" s="188"/>
-      <c r="AA13" s="188"/>
-      <c r="AB13" s="188"/>
-      <c r="AC13" s="188"/>
-      <c r="AD13" s="188"/>
-      <c r="AE13" s="188"/>
-      <c r="AF13" s="188"/>
-      <c r="AG13" s="188"/>
-      <c r="AH13" s="188"/>
-      <c r="AI13" s="188"/>
-      <c r="AJ13" s="188"/>
-      <c r="AK13" s="188"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="194"/>
+      <c r="R13" s="194"/>
+      <c r="S13" s="194"/>
+      <c r="T13" s="194"/>
+      <c r="U13" s="194"/>
+      <c r="V13" s="194"/>
+      <c r="W13" s="194"/>
+      <c r="X13" s="194"/>
+      <c r="Y13" s="194"/>
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="194"/>
+      <c r="AB13" s="194"/>
+      <c r="AC13" s="194"/>
+      <c r="AD13" s="194"/>
+      <c r="AE13" s="194"/>
+      <c r="AF13" s="194"/>
+      <c r="AG13" s="194"/>
+      <c r="AH13" s="194"/>
+      <c r="AI13" s="194"/>
+      <c r="AJ13" s="194"/>
+      <c r="AK13" s="194"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5873,29 +6002,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="188"/>
-      <c r="P14" s="188"/>
-      <c r="Q14" s="188"/>
-      <c r="R14" s="188"/>
-      <c r="S14" s="188"/>
-      <c r="T14" s="188"/>
-      <c r="U14" s="188"/>
-      <c r="V14" s="188"/>
-      <c r="W14" s="188"/>
-      <c r="X14" s="188"/>
-      <c r="Y14" s="188"/>
-      <c r="Z14" s="188"/>
-      <c r="AA14" s="188"/>
-      <c r="AB14" s="188"/>
-      <c r="AC14" s="188"/>
-      <c r="AD14" s="188"/>
-      <c r="AE14" s="188"/>
-      <c r="AF14" s="188"/>
-      <c r="AG14" s="188"/>
-      <c r="AH14" s="188"/>
-      <c r="AI14" s="188"/>
-      <c r="AJ14" s="188"/>
-      <c r="AK14" s="188"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="194"/>
+      <c r="Q14" s="194"/>
+      <c r="R14" s="194"/>
+      <c r="S14" s="194"/>
+      <c r="T14" s="194"/>
+      <c r="U14" s="194"/>
+      <c r="V14" s="194"/>
+      <c r="W14" s="194"/>
+      <c r="X14" s="194"/>
+      <c r="Y14" s="194"/>
+      <c r="Z14" s="194"/>
+      <c r="AA14" s="194"/>
+      <c r="AB14" s="194"/>
+      <c r="AC14" s="194"/>
+      <c r="AD14" s="194"/>
+      <c r="AE14" s="194"/>
+      <c r="AF14" s="194"/>
+      <c r="AG14" s="194"/>
+      <c r="AH14" s="194"/>
+      <c r="AI14" s="194"/>
+      <c r="AJ14" s="194"/>
+      <c r="AK14" s="194"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -5923,43 +6052,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="189" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" s="189"/>
-      <c r="M15" s="189"/>
-      <c r="N15" s="189"/>
-      <c r="O15" s="189"/>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="189"/>
-      <c r="R15" s="189"/>
-      <c r="S15" s="189"/>
-      <c r="T15" s="189"/>
-      <c r="U15" s="189"/>
-      <c r="V15" s="189"/>
-      <c r="W15" s="189"/>
-      <c r="X15" s="189"/>
-      <c r="Y15" s="189"/>
-      <c r="Z15" s="189"/>
-      <c r="AA15" s="189"/>
-      <c r="AB15" s="189"/>
-      <c r="AC15" s="189"/>
-      <c r="AD15" s="189"/>
-      <c r="AE15" s="189"/>
-      <c r="AF15" s="189"/>
-      <c r="AG15" s="189"/>
-      <c r="AH15" s="189"/>
-      <c r="AI15" s="189"/>
-      <c r="AJ15" s="189"/>
-      <c r="AK15" s="189"/>
-      <c r="AL15" s="189"/>
-      <c r="AM15" s="189"/>
-      <c r="AN15" s="189"/>
-      <c r="AO15" s="189"/>
-      <c r="AP15" s="189"/>
-      <c r="AQ15" s="189"/>
-      <c r="AR15" s="189"/>
-      <c r="AS15" s="189"/>
+      <c r="K15" s="195" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="195"/>
+      <c r="M15" s="195"/>
+      <c r="N15" s="195"/>
+      <c r="O15" s="195"/>
+      <c r="P15" s="195"/>
+      <c r="Q15" s="195"/>
+      <c r="R15" s="195"/>
+      <c r="S15" s="195"/>
+      <c r="T15" s="195"/>
+      <c r="U15" s="195"/>
+      <c r="V15" s="195"/>
+      <c r="W15" s="195"/>
+      <c r="X15" s="195"/>
+      <c r="Y15" s="195"/>
+      <c r="Z15" s="195"/>
+      <c r="AA15" s="195"/>
+      <c r="AB15" s="195"/>
+      <c r="AC15" s="195"/>
+      <c r="AD15" s="195"/>
+      <c r="AE15" s="195"/>
+      <c r="AF15" s="195"/>
+      <c r="AG15" s="195"/>
+      <c r="AH15" s="195"/>
+      <c r="AI15" s="195"/>
+      <c r="AJ15" s="195"/>
+      <c r="AK15" s="195"/>
+      <c r="AL15" s="195"/>
+      <c r="AM15" s="195"/>
+      <c r="AN15" s="195"/>
+      <c r="AO15" s="195"/>
+      <c r="AP15" s="195"/>
+      <c r="AQ15" s="195"/>
+      <c r="AR15" s="195"/>
+      <c r="AS15" s="195"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -5979,41 +6108,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="189"/>
-      <c r="M16" s="189"/>
-      <c r="N16" s="189"/>
-      <c r="O16" s="189"/>
-      <c r="P16" s="189"/>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="189"/>
-      <c r="S16" s="189"/>
-      <c r="T16" s="189"/>
-      <c r="U16" s="189"/>
-      <c r="V16" s="189"/>
-      <c r="W16" s="189"/>
-      <c r="X16" s="189"/>
-      <c r="Y16" s="189"/>
-      <c r="Z16" s="189"/>
-      <c r="AA16" s="189"/>
-      <c r="AB16" s="189"/>
-      <c r="AC16" s="189"/>
-      <c r="AD16" s="189"/>
-      <c r="AE16" s="189"/>
-      <c r="AF16" s="189"/>
-      <c r="AG16" s="189"/>
-      <c r="AH16" s="189"/>
-      <c r="AI16" s="189"/>
-      <c r="AJ16" s="189"/>
-      <c r="AK16" s="189"/>
-      <c r="AL16" s="189"/>
-      <c r="AM16" s="189"/>
-      <c r="AN16" s="189"/>
-      <c r="AO16" s="189"/>
-      <c r="AP16" s="189"/>
-      <c r="AQ16" s="189"/>
-      <c r="AR16" s="189"/>
-      <c r="AS16" s="189"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="195"/>
+      <c r="M16" s="195"/>
+      <c r="N16" s="195"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="195"/>
+      <c r="R16" s="195"/>
+      <c r="S16" s="195"/>
+      <c r="T16" s="195"/>
+      <c r="U16" s="195"/>
+      <c r="V16" s="195"/>
+      <c r="W16" s="195"/>
+      <c r="X16" s="195"/>
+      <c r="Y16" s="195"/>
+      <c r="Z16" s="195"/>
+      <c r="AA16" s="195"/>
+      <c r="AB16" s="195"/>
+      <c r="AC16" s="195"/>
+      <c r="AD16" s="195"/>
+      <c r="AE16" s="195"/>
+      <c r="AF16" s="195"/>
+      <c r="AG16" s="195"/>
+      <c r="AH16" s="195"/>
+      <c r="AI16" s="195"/>
+      <c r="AJ16" s="195"/>
+      <c r="AK16" s="195"/>
+      <c r="AL16" s="195"/>
+      <c r="AM16" s="195"/>
+      <c r="AN16" s="195"/>
+      <c r="AO16" s="195"/>
+      <c r="AP16" s="195"/>
+      <c r="AQ16" s="195"/>
+      <c r="AR16" s="195"/>
+      <c r="AS16" s="195"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -6602,14 +6731,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="190" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO27" s="190"/>
-      <c r="AP27" s="190"/>
-      <c r="AQ27" s="190"/>
-      <c r="AR27" s="190"/>
-      <c r="AS27" s="190"/>
+      <c r="AN27" s="196" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO27" s="196"/>
+      <c r="AP27" s="196"/>
+      <c r="AQ27" s="196"/>
+      <c r="AR27" s="196"/>
+      <c r="AS27" s="196"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -7070,10 +7199,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -7085,7 +7214,8 @@
     <col min="6" max="6" width="20.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" style="13"/>
+    <col min="9" max="9" width="8.83203125" style="13"/>
+    <col min="10" max="10" width="15" style="13" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" style="13" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="13" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
@@ -7104,110 +7234,110 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="213" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="218"/>
+      <c r="C2" s="219" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="224"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="213" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="214"/>
+      <c r="F2" s="219" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="220"/>
     </row>
     <row r="3" spans="1:19" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="219"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="225"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="215" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="216"/>
+      <c r="F3" s="221" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="222"/>
     </row>
     <row r="4" spans="1:19" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="217" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="219"/>
+      <c r="C4" s="223" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="225"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="217"/>
-      <c r="G4" s="216"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="222"/>
     </row>
     <row r="5" spans="1:19" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="217" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="219"/>
+      <c r="C5" s="223" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="225"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="216"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="222"/>
     </row>
     <row r="6" spans="1:19" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="217" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="219"/>
+      <c r="C6" s="223" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="225"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="216"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="222"/>
     </row>
     <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="203"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="209"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="204"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="206"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="212"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="207"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="206"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="212"/>
     </row>
     <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="210"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="216"/>
     </row>
     <row r="12" spans="1:19" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7233,56 +7363,52 @@
         <v>31</v>
       </c>
       <c r="I13" s="128" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J13" s="128" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="K13" s="128" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="L13" s="128"/>
       <c r="M13" s="128" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N13" s="128" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O13" s="128" t="s">
-        <v>154</v>
-      </c>
-      <c r="P13" s="128" t="s">
-        <v>118</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P13" s="128"/>
       <c r="Q13" s="128" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="R13" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="128" t="s">
-        <v>6</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="S13" s="128"/>
     </row>
     <row r="14" spans="1:19" ht="14">
-      <c r="A14" s="246">
+      <c r="A14" s="188">
         <v>1</v>
       </c>
-      <c r="B14" s="247" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="248" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="248" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="249" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="250"/>
-      <c r="G14" s="251" t="s">
-        <v>201</v>
+      <c r="B14" s="189" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="190" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="190" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="191" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="192"/>
+      <c r="G14" s="193" t="s">
+        <v>195</v>
       </c>
       <c r="H14" s="87"/>
       <c r="N14" s="132"/>
@@ -7295,13 +7421,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
@@ -7313,31 +7439,26 @@
         <v>1</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N15" s="132" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="P15" s="127">
-        <v>41922.465277777781</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P15" s="127"/>
       <c r="Q15" s="127">
         <v>41922.465277777781</v>
       </c>
       <c r="R15" s="127">
         <v>41922.465277777781</v>
-      </c>
-      <c r="S15" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="14">
@@ -7345,53 +7466,48 @@
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="G16" s="187" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H16" s="87"/>
       <c r="I16" s="13">
         <v>2</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N16" s="132" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="P16" s="127">
-        <v>41922.46875</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P16" s="127"/>
       <c r="Q16" s="127">
         <v>41922.46875</v>
       </c>
       <c r="R16" s="127">
         <v>41922.46875</v>
-      </c>
-      <c r="S16" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="14">
@@ -7399,18 +7515,20 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="E17" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="67"/>
+        <v>141</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>4</v>
+      </c>
       <c r="G17" s="107"/>
       <c r="H17" s="87"/>
       <c r="N17" s="132"/>
@@ -7423,13 +7541,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>3</v>
@@ -7495,10 +7613,10 @@
       <c r="B26" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="199" t="s">
+      <c r="C26" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="200"/>
+      <c r="D26" s="206"/>
       <c r="E26" s="34" t="s">
         <v>33</v>
       </c>
@@ -7516,10 +7634,10 @@
       <c r="B27" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="230" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="231"/>
+      <c r="C27" s="236" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="237"/>
       <c r="E27" s="162" t="s">
         <v>3</v>
       </c>
@@ -7528,99 +7646,116 @@
       </c>
       <c r="G27" s="163"/>
     </row>
-    <row r="28" spans="1:18" ht="12" thickBot="1">
-      <c r="A28" s="164">
+    <row r="28" spans="1:18" ht="13">
+      <c r="A28" s="252"/>
+      <c r="B28" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="253" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="254"/>
+      <c r="E28" s="255" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="255" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="256"/>
+    </row>
+    <row r="29" spans="1:18" ht="12" thickBot="1">
+      <c r="A29" s="164">
         <v>2</v>
       </c>
-      <c r="B28" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="C28" s="232" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="232"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="167" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="12" thickBot="1">
-      <c r="A29" s="168"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="244"/>
-      <c r="D29" s="245"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="171"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="1" t="s">
+      <c r="B29" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="238" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="238"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="12" thickBot="1">
+      <c r="A30" s="168"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="251"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="171"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="12" thickBot="1">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="14" thickBot="1">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:7" ht="12" thickBot="1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="14" thickBot="1">
+      <c r="A34" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B34" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="192" t="s">
+      <c r="C34" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="193"/>
-      <c r="E33" s="192" t="s">
+      <c r="D34" s="199"/>
+      <c r="E34" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="194"/>
-      <c r="G33" s="38" t="s">
+      <c r="F34" s="200"/>
+      <c r="G34" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1">
-      <c r="A34" s="172">
+    <row r="35" spans="1:7" ht="15" thickBot="1">
+      <c r="A35" s="172">
         <v>1</v>
       </c>
-      <c r="B34" s="173" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="173" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="173"/>
-      <c r="E34" s="228" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="229"/>
-      <c r="G34" s="174" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12" thickBot="1">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="173" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="173" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="173"/>
+      <c r="E35" s="234" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="235"/>
+      <c r="G35" s="174" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12" thickBot="1">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14" thickBot="1">
-      <c r="A37" s="36" t="s">
+    <row r="38" spans="1:7" ht="14" thickBot="1">
+      <c r="A38" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B38" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="192" t="s">
+      <c r="C38" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="193"/>
-      <c r="E37" s="192" t="s">
+      <c r="D38" s="199"/>
+      <c r="E38" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="194"/>
-      <c r="G37" s="38" t="s">
+      <c r="F38" s="200"/>
+      <c r="G38" s="38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7638,15 +7773,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7702,11 +7837,11 @@
         <v>41922</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F3" s="96"/>
     </row>
@@ -7958,11 +8093,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
     </row>
     <row r="2" spans="1:3" ht="12" thickBot="1">
       <c r="A2" s="118" t="s">
@@ -7980,10 +8115,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7992,10 +8127,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8004,10 +8139,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8016,10 +8151,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8225,10 +8360,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -8259,110 +8394,110 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="213" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="218"/>
+      <c r="C2" s="219" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="224"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="213" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="214"/>
+      <c r="F2" s="219" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="220"/>
     </row>
     <row r="3" spans="1:19" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="219"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="225"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="215" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="216"/>
+      <c r="F3" s="221" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="222"/>
     </row>
     <row r="4" spans="1:19" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="217" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="219"/>
+      <c r="C4" s="223" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="225"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="217"/>
-      <c r="G4" s="216"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="222"/>
     </row>
     <row r="5" spans="1:19" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="217" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="219"/>
+      <c r="C5" s="223" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="225"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="216"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="222"/>
     </row>
     <row r="6" spans="1:19" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="217" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="219"/>
+      <c r="C6" s="223" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="225"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="216"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="222"/>
     </row>
     <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="203"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="209"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="204"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="206"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="212"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="207"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="206"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="212"/>
     </row>
     <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="210"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="216"/>
     </row>
     <row r="12" spans="1:19" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -8388,49 +8523,47 @@
         <v>31</v>
       </c>
       <c r="I13" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="128" t="s">
         <v>115</v>
-      </c>
-      <c r="J13" s="128" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" s="128" t="s">
-        <v>117</v>
       </c>
       <c r="L13" s="128"/>
       <c r="M13" s="128" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N13" s="128" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O13" s="128" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P13" s="128" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="128" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="R13" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="128" t="s">
-        <v>6</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="S13" s="128"/>
     </row>
     <row r="14" spans="1:19" ht="14">
       <c r="A14" s="69">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E14" s="66" t="s">
         <v>3</v>
@@ -8444,31 +8577,28 @@
         <v>1</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N14" s="132" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="P14" s="127">
-        <v>41922.465277777781</v>
+        <v>122</v>
+      </c>
+      <c r="P14" s="127" t="s">
+        <v>204</v>
       </c>
       <c r="Q14" s="127">
         <v>41922.465277777781</v>
       </c>
       <c r="R14" s="127">
         <v>41922.465277777781</v>
-      </c>
-      <c r="S14" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="14">
@@ -8477,42 +8607,42 @@
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H15" s="87"/>
       <c r="I15" s="13">
         <v>2</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N15" s="132" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="P15" s="127">
-        <v>41922.46875</v>
+        <v>122</v>
+      </c>
+      <c r="P15" s="127" t="s">
+        <v>204</v>
       </c>
       <c r="Q15" s="127">
         <v>41922.46875</v>
@@ -8520,30 +8650,27 @@
       <c r="R15" s="127">
         <v>41922.46875</v>
       </c>
-      <c r="S15" s="13">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="59">
-        <f t="shared" ref="A16:A21" si="0">A15+1</f>
+        <f t="shared" ref="A16:A22" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="67"/>
       <c r="G16" s="117" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H16" s="87"/>
     </row>
@@ -8553,20 +8680,20 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="67"/>
       <c r="G17" s="117" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -8575,20 +8702,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D18" s="129" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="67"/>
       <c r="G18" s="117" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14">
@@ -8597,221 +8724,255 @@
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D19" s="129" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="67"/>
       <c r="G19" s="133" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14">
       <c r="A20" s="59">
         <v>7</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="106" t="s">
-        <v>100</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D20" s="129" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="133"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="59">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="E21" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="59">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="148"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="153"/>
+    </row>
+    <row r="25" spans="1:7" ht="12" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="205" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="206"/>
+      <c r="E26" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="13">
+      <c r="A27" s="14">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="217" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="218"/>
+      <c r="E27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="13" customHeight="1">
+      <c r="A28" s="57">
+        <v>2</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="203" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="204"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="106" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12" thickBot="1">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="29" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="13" customHeight="1">
+      <c r="A29" s="57">
+        <v>3</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="135"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="136" customFormat="1" ht="13" customHeight="1">
+      <c r="A30" s="57">
+        <v>4</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="134" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="135"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="13" customHeight="1" thickBot="1">
+      <c r="A31" s="56">
+        <v>5</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="201" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="202"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="33" spans="1:7" ht="12" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14" thickBot="1">
+      <c r="A34" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="199" t="s">
+      <c r="B34" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="200"/>
-      <c r="E24" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="13">
-      <c r="A25" s="14">
-        <v>1</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="211" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="212"/>
-      <c r="E25" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" ht="13" customHeight="1">
-      <c r="A26" s="57">
-        <v>2</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="197" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="198"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="13" customHeight="1">
-      <c r="A27" s="57">
-        <v>3</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="134" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="136" customFormat="1" ht="13" customHeight="1">
-      <c r="A28" s="57">
-        <v>4</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="13" customHeight="1" thickBot="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="31" spans="1:7" ht="12" thickBot="1">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14" thickBot="1">
-      <c r="A32" s="36" t="s">
+      <c r="D34" s="199"/>
+      <c r="E34" s="198" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="200"/>
+      <c r="G34" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12" thickBot="1">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14" thickBot="1">
+      <c r="A37" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B37" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="192" t="s">
+      <c r="C37" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="193"/>
-      <c r="E32" s="192" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="194"/>
-      <c r="G32" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="12" thickBot="1">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14" thickBot="1">
-      <c r="A35" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="192" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="193"/>
-      <c r="E35" s="192" t="s">
+      <c r="D37" s="199"/>
+      <c r="E37" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="194"/>
-      <c r="G35" s="38" t="s">
+      <c r="F37" s="200"/>
+      <c r="G37" s="38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8827,16 +8988,16 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8884,103 +9045,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="218"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="213" t="s">
+      <c r="F2" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="214"/>
+      <c r="G2" s="220"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="219"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="225"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="217" t="s">
+      <c r="F3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="216"/>
+      <c r="G3" s="222"/>
     </row>
     <row r="4" spans="1:11" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="217" t="s">
+      <c r="C4" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="219"/>
+      <c r="D4" s="225"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="217"/>
-      <c r="G4" s="216"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="222"/>
     </row>
     <row r="5" spans="1:11" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="217" t="s">
+      <c r="C5" s="223" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="219"/>
+      <c r="D5" s="225"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="216"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="222"/>
     </row>
     <row r="6" spans="1:11" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="217" t="s">
+      <c r="C6" s="223" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="219"/>
+      <c r="D6" s="225"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="216"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="222"/>
     </row>
     <row r="7" spans="1:11" ht="13">
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="203"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="209"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="204"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="206"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="212"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="207"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="206"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="212"/>
     </row>
     <row r="10" spans="1:11" ht="12" thickBot="1">
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="210"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="216"/>
     </row>
     <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9202,10 +9363,10 @@
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="199" t="s">
+      <c r="C24" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="200"/>
+      <c r="D24" s="206"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -9223,10 +9384,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="211" t="s">
+      <c r="C25" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="212"/>
+      <c r="D25" s="218"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -9240,10 +9401,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="222" t="s">
+      <c r="C26" s="228" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="223"/>
+      <c r="D26" s="229"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -9262,14 +9423,14 @@
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="192" t="s">
+      <c r="C29" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="193"/>
-      <c r="E29" s="192" t="s">
+      <c r="D29" s="199"/>
+      <c r="E29" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="194"/>
+      <c r="F29" s="200"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -9286,14 +9447,14 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="192" t="s">
+      <c r="C32" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="193"/>
-      <c r="E32" s="192" t="s">
+      <c r="D32" s="199"/>
+      <c r="E32" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="194"/>
+      <c r="F32" s="200"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -9303,14 +9464,14 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="220" t="s">
+      <c r="C33" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="221"/>
-      <c r="E33" s="222" t="s">
+      <c r="D33" s="227"/>
+      <c r="E33" s="228" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="223"/>
+      <c r="F33" s="229"/>
       <c r="G33" s="28" t="s">
         <v>49</v>
       </c>
@@ -9385,105 +9546,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="218"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="213" t="s">
+      <c r="F2" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="214"/>
+      <c r="G2" s="220"/>
     </row>
     <row r="3" spans="1:7" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="219"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="225"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="217" t="s">
+      <c r="F3" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="216"/>
+      <c r="G3" s="222"/>
     </row>
     <row r="4" spans="1:7" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="217" t="s">
+      <c r="C4" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="219"/>
+      <c r="D4" s="225"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="217"/>
-      <c r="G4" s="216"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="222"/>
     </row>
     <row r="5" spans="1:7" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="217" t="s">
+      <c r="C5" s="223" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="219"/>
+      <c r="D5" s="225"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="216"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="222"/>
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="217" t="s">
+      <c r="C6" s="223" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="219"/>
+      <c r="D6" s="225"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="216"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="222"/>
     </row>
     <row r="7" spans="1:7" ht="13">
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="203"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="209"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="210" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="206"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="212"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="207"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="206"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="212"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1">
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="210"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="216"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9588,10 +9749,10 @@
       <c r="B19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="199" t="s">
+      <c r="C19" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="200"/>
+      <c r="D19" s="206"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -9609,10 +9770,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="211" t="s">
+      <c r="C20" s="217" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="212"/>
+      <c r="D20" s="218"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -9626,10 +9787,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="220" t="s">
+      <c r="C21" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="221"/>
+      <c r="D21" s="227"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
@@ -9648,14 +9809,14 @@
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="192" t="s">
+      <c r="C24" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="193"/>
-      <c r="E24" s="192" t="s">
+      <c r="D24" s="199"/>
+      <c r="E24" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="194"/>
+      <c r="F24" s="200"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -9672,14 +9833,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="192" t="s">
+      <c r="C27" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="193"/>
-      <c r="E27" s="192" t="s">
+      <c r="D27" s="199"/>
+      <c r="E27" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="194"/>
+      <c r="F27" s="200"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -9689,10 +9850,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="221"/>
-      <c r="E28" s="222"/>
-      <c r="F28" s="223"/>
+      <c r="C28" s="226"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="229"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>
@@ -9765,103 +9926,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="218"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="226" t="s">
+      <c r="F2" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="227"/>
+      <c r="G2" s="233"/>
     </row>
     <row r="3" spans="1:14" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="219"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="225"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="215" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="216"/>
+      <c r="F3" s="221" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="222"/>
     </row>
     <row r="4" spans="1:14" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="217" t="s">
+      <c r="C4" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="219"/>
+      <c r="D4" s="225"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="217"/>
-      <c r="G4" s="216"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="222"/>
     </row>
     <row r="5" spans="1:14" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="217" t="s">
+      <c r="C5" s="223" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="219"/>
+      <c r="D5" s="225"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="216"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="222"/>
     </row>
     <row r="6" spans="1:14" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="217" t="s">
+      <c r="C6" s="223" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="219"/>
+      <c r="D6" s="225"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="216"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="222"/>
     </row>
     <row r="7" spans="1:14" ht="13">
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="203"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="209"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="204"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="206"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="212"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="207"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="206"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="212"/>
     </row>
     <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="210"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="216"/>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="87"/>
@@ -10077,10 +10238,10 @@
       <c r="B21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="199" t="s">
+      <c r="C21" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="200"/>
+      <c r="D21" s="206"/>
       <c r="E21" s="34" t="s">
         <v>33</v>
       </c>
@@ -10104,10 +10265,10 @@
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="211" t="s">
+      <c r="C22" s="217" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="212"/>
+      <c r="D22" s="218"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -10127,10 +10288,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="197" t="s">
+      <c r="C23" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="198"/>
+      <c r="D23" s="204"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
@@ -10148,10 +10309,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="220" t="s">
+      <c r="C24" s="226" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="221"/>
+      <c r="D24" s="227"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
         <v>3</v>
@@ -10190,14 +10351,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="192" t="s">
+      <c r="C27" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="193"/>
-      <c r="E27" s="192" t="s">
+      <c r="D27" s="199"/>
+      <c r="E27" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="194"/>
+      <c r="F27" s="200"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
@@ -10234,14 +10395,14 @@
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="192" t="s">
+      <c r="C30" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="193"/>
-      <c r="E30" s="192" t="s">
+      <c r="D30" s="199"/>
+      <c r="E30" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="194"/>
+      <c r="F30" s="200"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
@@ -10257,14 +10418,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="211" t="s">
+      <c r="C31" s="217" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="212"/>
-      <c r="E31" s="197" t="s">
+      <c r="D31" s="218"/>
+      <c r="E31" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="198"/>
+      <c r="F31" s="204"/>
       <c r="G31" s="53" t="s">
         <v>76</v>
       </c>
@@ -10280,14 +10441,14 @@
         <v>2</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="224" t="s">
+      <c r="C32" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="225"/>
-      <c r="E32" s="222" t="s">
+      <c r="D32" s="231"/>
+      <c r="E32" s="228" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="223"/>
+      <c r="F32" s="229"/>
       <c r="G32" s="55" t="s">
         <v>52</v>
       </c>
@@ -10382,10 +10543,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -10416,110 +10577,110 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="213" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="218"/>
+      <c r="C2" s="219" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="224"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="213" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="214"/>
+      <c r="F2" s="219" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="220"/>
     </row>
     <row r="3" spans="1:19" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="219"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="225"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="215" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="216"/>
+      <c r="F3" s="221" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="222"/>
     </row>
     <row r="4" spans="1:19" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="217" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="219"/>
+      <c r="C4" s="223" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="225"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="217"/>
-      <c r="G4" s="216"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="222"/>
     </row>
     <row r="5" spans="1:19" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="217" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="219"/>
+      <c r="C5" s="223" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="225"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="216"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="222"/>
     </row>
     <row r="6" spans="1:19" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="217" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="219"/>
+      <c r="C6" s="223" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="225"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="216"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="222"/>
     </row>
     <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="203"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="209"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="204"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="206"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="212"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="207"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="206"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="212"/>
     </row>
     <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="210"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="216"/>
     </row>
     <row r="12" spans="1:19" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -10545,32 +10706,34 @@
         <v>31</v>
       </c>
       <c r="I13" s="128" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J13" s="128" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="K13" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="128"/>
+        <v>165</v>
+      </c>
+      <c r="L13" s="128" t="s">
+        <v>155</v>
+      </c>
       <c r="M13" s="128" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="N13" s="128" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O13" s="128" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P13" s="128" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="128" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="R13" s="128" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="S13" s="128" t="s">
         <v>6</v>
@@ -10581,13 +10744,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E14" s="66" t="s">
         <v>3</v>
@@ -10601,22 +10764,25 @@
         <v>1</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>112</v>
+        <v>207</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N14" s="132" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="P14" s="127">
-        <v>41922.465277777781</v>
+        <v>149</v>
+      </c>
+      <c r="P14" s="127" t="s">
+        <v>204</v>
       </c>
       <c r="Q14" s="127">
         <v>41922.465277777781</v>
@@ -10634,13 +10800,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
@@ -10652,22 +10818,25 @@
         <v>2</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>114</v>
+        <v>208</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N15" s="132" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="P15" s="127">
-        <v>41922.46875</v>
+        <v>149</v>
+      </c>
+      <c r="P15" s="127" t="s">
+        <v>204</v>
       </c>
       <c r="Q15" s="127">
         <v>41922.46875</v>
@@ -10684,16 +10853,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E16" s="66" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F16" s="67"/>
       <c r="G16" s="107"/>
@@ -10711,10 +10880,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>3</v>
@@ -10725,26 +10894,26 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="59">
-        <f t="shared" ref="A18:A21" si="0">A17+1</f>
+        <f t="shared" ref="A18:A19" si="0">A17+1</f>
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="G18" s="106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -10753,28 +10922,27 @@
         <v>6</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C19" s="138" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D19" s="139" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="E19" s="140" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="141" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="G19" s="142" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="59">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>40</v>
@@ -10783,220 +10951,228 @@
         <v>6</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E20" s="143" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="12" thickBot="1">
-      <c r="A21" s="70">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B21" s="144" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="145" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="59">
+        <v>7</v>
+      </c>
+      <c r="B21" s="137" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="138" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="139" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="140"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="142"/>
+    </row>
+    <row r="22" spans="1:8" ht="12" thickBot="1">
+      <c r="A22" s="70">
+        <f>A20+1</f>
+        <v>9</v>
+      </c>
+      <c r="B22" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="145" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="146"/>
-      <c r="G21" s="147" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="148"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="153"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="147" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="148"/>
       <c r="B23" s="149"/>
-      <c r="C23" s="154"/>
+      <c r="C23" s="150"/>
       <c r="D23" s="150"/>
       <c r="E23" s="151"/>
       <c r="F23" s="152"/>
       <c r="G23" s="153"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="148"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="153"/>
-    </row>
     <row r="25" spans="1:8">
       <c r="A25" s="148"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="159"/>
-    </row>
-    <row r="27" spans="1:8" ht="12" thickBot="1">
-      <c r="A27" s="1" t="s">
+      <c r="B25" s="149"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="153"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="148"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="159"/>
+    </row>
+    <row r="28" spans="1:8" ht="12" thickBot="1">
+      <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="29" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B29" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="199" t="s">
+      <c r="C29" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="200"/>
-      <c r="E28" s="34" t="s">
+      <c r="D29" s="206"/>
+      <c r="E29" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F29" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G29" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13">
-      <c r="A29" s="160">
+    <row r="30" spans="1:8" ht="13">
+      <c r="A30" s="160">
         <v>1</v>
       </c>
-      <c r="B29" s="161" t="s">
+      <c r="B30" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="230" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="231"/>
-      <c r="E29" s="162" t="s">
+      <c r="C30" s="236" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="237"/>
+      <c r="E30" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="162" t="s">
+      <c r="F30" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="163"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="164">
+      <c r="G30" s="163"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="164">
         <v>2</v>
       </c>
-      <c r="B30" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="232" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="232"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="167" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="12" thickBot="1">
-      <c r="A31" s="168">
+      <c r="B31" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="238" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="238"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12" thickBot="1">
+      <c r="A32" s="168">
         <v>3</v>
       </c>
-      <c r="B31" s="169" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="233" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" s="233"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="171" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
+      <c r="B32" s="169" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="239" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="239"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="171" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12" thickBot="1">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="14" thickBot="1">
-      <c r="A35" s="36" t="s">
+    <row r="35" spans="1:7" ht="12" thickBot="1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="14" thickBot="1">
+      <c r="A36" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="192" t="s">
+      <c r="C36" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="193"/>
-      <c r="E35" s="192" t="s">
+      <c r="D36" s="199"/>
+      <c r="E36" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="194"/>
-      <c r="G35" s="38" t="s">
+      <c r="F36" s="200"/>
+      <c r="G36" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1">
-      <c r="A36" s="172">
+    <row r="37" spans="1:7" ht="15" thickBot="1">
+      <c r="A37" s="172">
         <v>1</v>
       </c>
-      <c r="B36" s="173" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="173" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="173"/>
-      <c r="E36" s="228" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" s="229"/>
-      <c r="G36" s="174" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="12" thickBot="1">
-      <c r="A38" s="1" t="s">
+      <c r="B37" s="173" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="173" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="173"/>
+      <c r="E37" s="234" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="235"/>
+      <c r="G37" s="174" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12" thickBot="1">
+      <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14" thickBot="1">
-      <c r="A39" s="36" t="s">
+    <row r="40" spans="1:7" ht="14" thickBot="1">
+      <c r="A40" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B40" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="192" t="s">
+      <c r="C40" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="193"/>
-      <c r="E39" s="192" t="s">
+      <c r="D40" s="199"/>
+      <c r="E40" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="194"/>
-      <c r="G39" s="38" t="s">
+      <c r="F40" s="200"/>
+      <c r="G40" s="38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11014,15 +11190,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11038,8 +11214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -11070,110 +11246,110 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="213" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="218"/>
+      <c r="C2" s="219" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="224"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="213" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="214"/>
+      <c r="F2" s="219" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="220"/>
     </row>
     <row r="3" spans="1:19" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="219"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="225"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="215" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="216"/>
+      <c r="F3" s="221" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="222"/>
     </row>
     <row r="4" spans="1:19" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="217" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="219"/>
+      <c r="C4" s="223" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="225"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="217"/>
-      <c r="G4" s="216"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="222"/>
     </row>
     <row r="5" spans="1:19" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="217" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="219"/>
+      <c r="C5" s="223" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="225"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="216"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="222"/>
     </row>
     <row r="6" spans="1:19" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="217" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="219"/>
+      <c r="C6" s="223" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="225"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="216"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="222"/>
     </row>
     <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="203"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="209"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="204"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="206"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="212"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="207"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="206"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="212"/>
     </row>
     <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="210"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="216"/>
     </row>
     <row r="12" spans="1:19" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -11199,49 +11375,49 @@
         <v>31</v>
       </c>
       <c r="I13" s="128" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J13" s="128" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="K13" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="128"/>
+        <v>204</v>
+      </c>
+      <c r="L13" s="128" t="s">
+        <v>204</v>
+      </c>
       <c r="M13" s="128" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N13" s="128" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O13" s="128" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P13" s="128" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="128" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="R13" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="128" t="s">
-        <v>6</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="S13" s="128"/>
     </row>
     <row r="14" spans="1:19" ht="14">
       <c r="A14" s="69">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E14" s="66" t="s">
         <v>3</v>
@@ -11255,31 +11431,31 @@
         <v>1</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>112</v>
+        <v>204</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N14" s="132" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="P14" s="127">
-        <v>41922.465277777781</v>
+        <v>149</v>
+      </c>
+      <c r="P14" s="127" t="s">
+        <v>204</v>
       </c>
       <c r="Q14" s="127">
         <v>41922.465277777781</v>
       </c>
       <c r="R14" s="127">
         <v>41922.465277777781</v>
-      </c>
-      <c r="S14" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="14">
@@ -11291,48 +11467,48 @@
         <v>12</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="107" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H15" s="87"/>
       <c r="I15" s="13">
         <v>2</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>114</v>
+        <v>204</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N15" s="132" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="P15" s="127">
-        <v>41922.46875</v>
+        <v>149</v>
+      </c>
+      <c r="P15" s="127" t="s">
+        <v>204</v>
       </c>
       <c r="Q15" s="127">
         <v>41922.46875</v>
       </c>
       <c r="R15" s="127">
         <v>41922.46875</v>
-      </c>
-      <c r="S15" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -11341,22 +11517,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="G16" s="106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H16" s="87"/>
     </row>
@@ -11366,22 +11542,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="G17" s="186" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -11390,13 +11566,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>3</v>
@@ -11408,19 +11584,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="144" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E19" s="131" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="175"/>
-      <c r="G19" s="147"/>
+      <c r="G19" s="186"/>
     </row>
     <row r="21" spans="1:7" ht="12" thickBot="1">
       <c r="A21" s="1" t="s">
@@ -11434,10 +11610,10 @@
       <c r="B22" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="199" t="s">
+      <c r="C22" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="200"/>
+      <c r="D22" s="206"/>
       <c r="E22" s="34" t="s">
         <v>33</v>
       </c>
@@ -11455,10 +11631,10 @@
       <c r="B23" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="240" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="241"/>
+      <c r="C23" s="246" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="247"/>
       <c r="E23" s="178" t="s">
         <v>3</v>
       </c>
@@ -11472,16 +11648,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="242" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" s="242"/>
+        <v>190</v>
+      </c>
+      <c r="C24" s="248" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="248"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12" thickBot="1">
@@ -11489,16 +11665,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="243" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="243"/>
+        <v>191</v>
+      </c>
+      <c r="C25" s="249" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="249"/>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
       <c r="G25" s="28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12" thickBot="1">
@@ -11513,14 +11689,14 @@
       <c r="B28" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="192" t="s">
+      <c r="C28" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="193"/>
-      <c r="E28" s="192" t="s">
+      <c r="D28" s="199"/>
+      <c r="E28" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="194"/>
+      <c r="F28" s="200"/>
       <c r="G28" s="38" t="s">
         <v>38</v>
       </c>
@@ -11530,18 +11706,18 @@
         <v>1</v>
       </c>
       <c r="B29" s="181" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="234" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="235"/>
-      <c r="E29" s="236" t="s">
-        <v>180</v>
-      </c>
-      <c r="F29" s="236"/>
+        <v>188</v>
+      </c>
+      <c r="C29" s="240" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="241"/>
+      <c r="E29" s="242" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="242"/>
       <c r="G29" s="182" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="12" thickBot="1">
@@ -11549,18 +11725,18 @@
         <v>2</v>
       </c>
       <c r="B30" s="184" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="237" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30" s="238"/>
-      <c r="E30" s="239" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="239"/>
+        <v>189</v>
+      </c>
+      <c r="C30" s="243" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="244"/>
+      <c r="E30" s="245" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="245"/>
       <c r="G30" s="185" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" thickBot="1">
@@ -11575,14 +11751,14 @@
       <c r="B33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="192" t="s">
+      <c r="C33" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="193"/>
-      <c r="E33" s="192" t="s">
+      <c r="D33" s="199"/>
+      <c r="E33" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="194"/>
+      <c r="F33" s="200"/>
       <c r="G33" s="38" t="s">
         <v>39</v>
       </c>
